--- a/Outputs/3. Prosumer percentage/Output Files/75/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/75/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620226.201777922</v>
+        <v>1605923.050039596</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948787</v>
+        <v>5866991.033948783</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736051</v>
+        <v>1783678.472736052</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>44.56163745778777</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -670,16 +670,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>157.1772296608845</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>162.172919432286</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.4794656653904</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>260.7078240755481</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -907,13 +907,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>216.049089489378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>135.7723281836481</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>69.56032144960754</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1138,19 +1138,19 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>353.3403900904814</v>
+        <v>254.5888562077032</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>152.5152204275942</v>
       </c>
       <c r="C10" t="n">
-        <v>54.58820749689274</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>101.6409518870423</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.14731377387277</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.97872423267246</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V14" t="n">
-        <v>308.4960544879098</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>27.77250173713465</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>143.276752221893</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>177.9195839254089</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.1036280031059</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>53.20093248929926</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>65.31582848596882</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2380,10 +2380,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>362.1342374265953</v>
       </c>
       <c r="X23" t="n">
-        <v>169.936707927914</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
@@ -2535,13 +2535,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>73.07079407347099</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>116.2166797957707</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>179.3230888550386</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2575,7 +2575,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>71.42047856476314</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>114.8776376182503</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>116.2166797957707</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>409.3546072814647</v>
       </c>
       <c r="G29" t="n">
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>79.34530250563819</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914968</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.85483607049115</v>
+        <v>165.3973060184329</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>190.1198520010252</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.4697473695408</v>
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.234755280439</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>379.1388458918021</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9659758737533</v>
+        <v>160.2222321506106</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>78.20287430981213</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3283,10 +3283,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H35" t="n">
-        <v>79.3453025056391</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>66.07896560696119</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>101.0709646272704</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.8250266956711</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>173.719034683046</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4761865113606</v>
+        <v>236.6877260817722</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>46.60934856763398</v>
+        <v>231.2283116500995</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>179.3230888550386</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3757,7 +3757,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
-        <v>306.0455584304623</v>
+        <v>79.34530250563822</v>
       </c>
       <c r="I41" t="n">
         <v>78.88597920914967</v>
@@ -3909,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>157.2698920598293</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>18.62548790105719</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -4036,7 +4036,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V44" t="n">
-        <v>119.6389231920607</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>170.2270503965671</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>35.12538235302112</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>99.73270096729578</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>881.5511617534477</v>
+        <v>927.2588741001834</v>
       </c>
       <c r="C2" t="n">
-        <v>875.4669751071218</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D2" t="n">
-        <v>875.0434492405864</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E2" t="n">
-        <v>864.7436377978871</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,25 +4333,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1929.489403034764</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1672.428911294274</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1672.428911294274</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W2" t="n">
-        <v>1288.668610429443</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X2" t="n">
-        <v>1288.668610429443</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="Y2" t="n">
-        <v>887.7319373775331</v>
+        <v>1337.480053764673</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="P3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.4983113906442</v>
+        <v>478.8119591581028</v>
       </c>
       <c r="C4" t="n">
-        <v>515.4983113906442</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D4" t="n">
-        <v>356.0036667135541</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E4" t="n">
-        <v>356.0036667135541</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1203.093116471976</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>1203.093116471976</v>
+        <v>1220.96118440078</v>
       </c>
       <c r="W4" t="n">
-        <v>924.02345198085</v>
+        <v>941.8915199096546</v>
       </c>
       <c r="X4" t="n">
-        <v>685.6795898405335</v>
+        <v>703.547657769338</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.4983113906442</v>
+        <v>478.8119591581028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1378.723472461974</v>
+        <v>1689.631969834255</v>
       </c>
       <c r="C5" t="n">
-        <v>968.5988817752439</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D5" t="n">
-        <v>968.1753559087084</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8351404256051</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4603,16 +4603,16 @@
         <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1603.135651610684</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1603.135651610684</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.135651610684</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>1384.904248086059</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>605.7731676935686</v>
+        <v>850.121764145656</v>
       </c>
       <c r="C7" t="n">
-        <v>468.6294018514998</v>
+        <v>679.0283917073725</v>
       </c>
       <c r="D7" t="n">
-        <v>468.6294018514998</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1500.901031291252</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1500.901031291252</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1500.901031291252</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1500.901031291252</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1500.901031291252</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1500.901031291252</v>
       </c>
       <c r="X7" t="n">
-        <v>1018.208572698848</v>
+        <v>1262.557169150936</v>
       </c>
       <c r="Y7" t="n">
-        <v>793.4728740876129</v>
+        <v>1037.8214705397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.6830684215697</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C8" t="n">
-        <v>968.5988817752439</v>
+        <v>1683.54778318793</v>
       </c>
       <c r="D8" t="n">
-        <v>564.1349518683044</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4804,22 +4804,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
         <v>1726.536628995245</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>1381.507241876703</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="X8" t="n">
-        <v>980.8638440456551</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="Y8" t="n">
-        <v>980.8638440456551</v>
+        <v>1695.812745458341</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767164</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.560540045044</v>
+        <v>810.693476121968</v>
       </c>
       <c r="C10" t="n">
-        <v>529.4209365128291</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D10" t="n">
-        <v>369.9262918357392</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1101.974066676486</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.974066676486</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="W10" t="n">
-        <v>822.9044021853606</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="X10" t="n">
-        <v>584.560540045044</v>
+        <v>964.7492543316591</v>
       </c>
       <c r="Y10" t="n">
-        <v>584.560540045044</v>
+        <v>964.7492543316591</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2134.851174492981</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C11" t="n">
-        <v>1724.726583806251</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.262653899312</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4559.51725636241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4337.310772309269</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4080.250280568779</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3346.652425040428</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2946.009027209381</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2545.072354157471</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5126,13 +5126,13 @@
         <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>355.6459363114127</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.623017005979</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N12" t="n">
-        <v>1198.623017005979</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O12" t="n">
         <v>1198.623017005979</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.0885758333507</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="C13" t="n">
-        <v>529.9952033950672</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D13" t="n">
-        <v>370.5005587179772</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E13" t="n">
-        <v>209.5897435862967</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F13" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1537.369875986873</v>
+        <v>1598.251368277258</v>
       </c>
       <c r="T13" t="n">
-        <v>1537.369875986873</v>
+        <v>1358.70262925396</v>
       </c>
       <c r="U13" t="n">
-        <v>1254.571728532997</v>
+        <v>1075.904481800084</v>
       </c>
       <c r="V13" t="n">
-        <v>980.6859834725187</v>
+        <v>1075.904481800084</v>
       </c>
       <c r="W13" t="n">
-        <v>980.6859834725187</v>
+        <v>1075.904481800084</v>
       </c>
       <c r="X13" t="n">
-        <v>980.6859834725187</v>
+        <v>837.5606196597678</v>
       </c>
       <c r="Y13" t="n">
-        <v>888.788282227395</v>
+        <v>612.8249210485325</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2140.463105868917</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1730.338515182187</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1325.874585275247</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>911.5343697921442</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>3736.024657281195</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3352.264356416364</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2951.620958585316</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2550.684285533406</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>354.5244442569915</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.5005587179772</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="C16" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1068.179960412907</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>794.2942153524291</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>515.2245508613034</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>370.5005587179772</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y16" t="n">
-        <v>370.5005587179772</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2144.727460069145</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.602869382415</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4347.187057885433</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4090.126566144943</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3740.289011481424</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3356.528710616592</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>2955.885312785545</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2554.948639733635</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>182.7137268369972</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>182.7137268369972</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.7019077947702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7019077947702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>128.7019077947702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>128.7019077947702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>128.7019077947702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V19" t="n">
-        <v>554.7454763291312</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W19" t="n">
-        <v>554.7454763291312</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X19" t="n">
-        <v>316.4016141888146</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y19" t="n">
-        <v>316.4016141888146</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>866.6187948158295</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>457.8905107086616</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>146.9820133363796</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>2083.796217986828</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>2083.796217986828</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2083.796217986828</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
         <v>2110.173374178493</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1045.453784514224</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>771.5680394537455</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>492.4983749626199</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>254.1545128223033</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C23" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D23" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F23" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G23" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H23" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732505</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547877</v>
@@ -6007,34 +6007,34 @@
         <v>3926.785084202962</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270216</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210384</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168606</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505087</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640255</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X23" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y23" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>298.8031752824191</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>298.8031752824191</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>626.1671657476433</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M24" t="n">
-        <v>626.1671657476433</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N24" t="n">
-        <v>1523.41809936609</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O24" t="n">
-        <v>1523.41809936609</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2102.446124327753</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
         <v>2102.446124327753</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J25" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
         <v>551.4710044025715</v>
@@ -6171,28 +6171,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U25" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V25" t="n">
-        <v>839.5691893494413</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W25" t="n">
-        <v>560.4995248583157</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X25" t="n">
-        <v>322.1556627179991</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.41996410676374</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C26" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D26" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F26" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G26" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H26" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6241,37 +6241,37 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M27" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N27" t="n">
-        <v>994.6708977252102</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O27" t="n">
-        <v>1720.210829014135</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>429.4241516767278</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C28" t="n">
-        <v>258.3307792384443</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D28" t="n">
-        <v>258.3307792384443</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E28" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F28" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G28" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I28" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
         <v>280.267281314263</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1504.390674934821</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1265.173476252325</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>982.3795612283316</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V28" t="n">
-        <v>708.4938161678534</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W28" t="n">
-        <v>429.4241516767278</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X28" t="n">
-        <v>429.4241516767278</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y28" t="n">
-        <v>429.4241516767278</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2537.213237850827</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>2127.088647164097</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1722.624717257157</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1308.284501774054</v>
       </c>
       <c r="F29" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G29" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H29" t="n">
         <v>177.1027713887331</v>
@@ -6463,16 +6463,16 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732501</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N29" t="n">
         <v>3254.588416372259</v>
@@ -6493,22 +6493,22 @@
         <v>4739.658996968402</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4482.612343926624</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>4132.774789263105</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3749.014488398273</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3348.371090567226</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2947.434417515316</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.632488341521</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O30" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5133365450472</v>
+        <v>756.0915928804271</v>
       </c>
       <c r="C31" t="n">
-        <v>97.41996410676373</v>
+        <v>584.9982204421436</v>
       </c>
       <c r="D31" t="n">
-        <v>97.41996410676373</v>
+        <v>425.5035757650537</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G31" t="n">
         <v>97.41996410676373</v>
@@ -6621,7 +6621,7 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J31" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
         <v>280.267281314263</v>
@@ -6654,19 +6654,19 @@
         <v>1435.389185958427</v>
       </c>
       <c r="U31" t="n">
-        <v>1152.595270934433</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="V31" t="n">
-        <v>878.7095258739553</v>
+        <v>1161.503440897949</v>
       </c>
       <c r="W31" t="n">
-        <v>599.6398613828296</v>
+        <v>1161.503440897949</v>
       </c>
       <c r="X31" t="n">
-        <v>361.295999242513</v>
+        <v>923.1595787576321</v>
       </c>
       <c r="Y31" t="n">
-        <v>268.5133365450472</v>
+        <v>756.0915928804271</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F32" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G32" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6715,37 +6715,37 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>661.3588250177028</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M33" t="n">
-        <v>661.3588250177028</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.609758636149</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O33" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J34" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
         <v>280.267281314263</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519373</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V34" t="n">
-        <v>639.4923271914593</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W34" t="n">
-        <v>560.4995248583157</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X34" t="n">
-        <v>322.155662717999</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.41996410676373</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092808</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406078</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499139</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.835254016035</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F35" t="n">
-        <v>665.8048419697229</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G35" t="n">
-        <v>257.2495415964494</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H35" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J35" t="n">
-        <v>365.9950463732505</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L35" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
         <v>3254.588416372259</v>
@@ -6958,31 +6958,31 @@
         <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210384</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168606</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505087</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640255</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809208</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757298</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J36" t="n">
-        <v>298.8031752824191</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>298.8031752824191</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>979.5875245199682</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>979.5875245199682</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>1050.674000801944</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>360.4226627003336</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C37" t="n">
-        <v>360.4226627003336</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D37" t="n">
-        <v>360.4226627003336</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E37" t="n">
-        <v>199.5118475686531</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F37" t="n">
-        <v>199.5118475686531</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G37" t="n">
-        <v>199.5118475686531</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H37" t="n">
-        <v>199.5118475686531</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I37" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J37" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
         <v>551.4710044025715</v>
@@ -7119,28 +7119,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U37" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V37" t="n">
-        <v>639.4923271914593</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W37" t="n">
-        <v>360.4226627003336</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X37" t="n">
-        <v>360.4226627003336</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y37" t="n">
-        <v>360.4226627003336</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G38" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I38" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732501</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547877</v>
@@ -7189,7 +7189,7 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P38" t="n">
         <v>4480.322041270215</v>
@@ -7201,25 +7201,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L39" t="n">
-        <v>778.2043133443128</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M39" t="n">
-        <v>1644.165903960623</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N39" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1827.686693961768</v>
       </c>
       <c r="Q39" t="n">
         <v>2137.637783597812</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>428.0079812221372</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="C40" t="n">
-        <v>256.9146087838537</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="D40" t="n">
-        <v>97.41996410676373</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="E40" t="n">
-        <v>97.41996410676373</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="F40" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G40" t="n">
         <v>97.41996410676373</v>
@@ -7332,10 +7332,10 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
         <v>551.4710044025715</v>
@@ -7368,16 +7368,16 @@
         <v>1180.201364315941</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.121214247624</v>
+        <v>946.6374131542241</v>
       </c>
       <c r="W40" t="n">
-        <v>854.0515497564982</v>
+        <v>667.5677486630984</v>
       </c>
       <c r="X40" t="n">
-        <v>615.7076876161816</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.7076876161816</v>
+        <v>429.2238865227819</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2315.763990092807</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F41" t="n">
-        <v>894.7949994695443</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G41" t="n">
-        <v>486.2396990962708</v>
+        <v>257.2495415964485</v>
       </c>
       <c r="H41" t="n">
         <v>177.1027713887331</v>
@@ -7423,13 +7423,13 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q41" t="n">
         <v>4819.791607344925</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3505.438158345676</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C42" t="n">
-        <v>3371.443087094622</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D42" t="n">
-        <v>3254.545929314014</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E42" t="n">
-        <v>3134.053113306342</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F42" t="n">
-        <v>3025.093233488847</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G42" t="n">
-        <v>2918.195675260429</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H42" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="K42" t="n">
-        <v>3301.234741502931</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="L42" t="n">
-        <v>3982.01909074048</v>
+        <v>374.425259363055</v>
       </c>
       <c r="M42" t="n">
-        <v>3982.01909074048</v>
+        <v>1240.386849979366</v>
       </c>
       <c r="N42" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="O42" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="P42" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q42" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R42" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S42" t="n">
-        <v>4764.727353901733</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T42" t="n">
-        <v>4605.758549501929</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U42" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V42" t="n">
-        <v>4194.702300742211</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W42" t="n">
-        <v>3981.46913247854</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X42" t="n">
-        <v>3805.143150617433</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y42" t="n">
-        <v>3645.741190981263</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1010.707408526025</v>
+        <v>753.5499222432264</v>
       </c>
       <c r="C43" t="n">
-        <v>839.6140360877416</v>
+        <v>582.4565498049429</v>
       </c>
       <c r="D43" t="n">
-        <v>680.1193914106516</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E43" t="n">
-        <v>519.2085762789711</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F43" t="n">
-        <v>519.2085762789711</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G43" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H43" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I43" t="n">
         <v>97.41996410676373</v>
@@ -7605,16 +7605,16 @@
         <v>1702.21247802243</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.21247802243</v>
+        <v>1683.398853879948</v>
       </c>
       <c r="W43" t="n">
-        <v>1423.142813531305</v>
+        <v>1404.329189388823</v>
       </c>
       <c r="X43" t="n">
-        <v>1423.142813531305</v>
+        <v>1165.985327248506</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.407114920069</v>
+        <v>941.2496286372708</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J44" t="n">
-        <v>365.9950463732498</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477951</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7684,13 +7684,13 @@
         <v>4261.163096168605</v>
       </c>
       <c r="V44" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W44" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X44" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y44" t="n">
         <v>2954.975327257119</v>
@@ -7727,28 +7727,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>1503.744244633237</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>461.0902014380282</v>
+        <v>628.1192913065167</v>
       </c>
       <c r="C46" t="n">
-        <v>461.0902014380282</v>
+        <v>457.0259188682332</v>
       </c>
       <c r="D46" t="n">
-        <v>461.0902014380282</v>
+        <v>297.5312741911433</v>
       </c>
       <c r="E46" t="n">
-        <v>461.0902014380282</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F46" t="n">
-        <v>461.0902014380282</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G46" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
         <v>97.41996410676373</v>
@@ -7830,28 +7830,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U46" t="n">
-        <v>1152.595270934434</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V46" t="n">
-        <v>1152.595270934434</v>
+        <v>1145.532817937959</v>
       </c>
       <c r="W46" t="n">
-        <v>873.5256064433079</v>
+        <v>866.4631534468333</v>
       </c>
       <c r="X46" t="n">
-        <v>873.5256064433079</v>
+        <v>628.1192913065167</v>
       </c>
       <c r="Y46" t="n">
-        <v>648.7899078320726</v>
+        <v>628.1192913065167</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
@@ -7993,16 +7993,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>553.6531472828635</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>334.1030092285466</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>392.2643757374374</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>296.4405581451824</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>395.5690244730516</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298663</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
@@ -8461,16 +8461,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O8" t="n">
-        <v>228.7885022587807</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8540,13 +8540,13 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9271386512359</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
@@ -8774,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>126.4068279099972</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -9008,16 +9008,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>126.7237675805745</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9026,7 +9026,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9248,25 +9248,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>146.4882906253687</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.33621061763176</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9719,25 +9719,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421728</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>366.8900926461655</v>
+        <v>36.21939520654513</v>
       </c>
       <c r="M24" t="n">
-        <v>34.3476070497872</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O24" t="n">
-        <v>35.95062976461617</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421728</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.2193952065451</v>
+        <v>36.21939520654513</v>
       </c>
       <c r="M27" t="n">
-        <v>34.3476070497872</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P27" t="n">
-        <v>93.33132248118856</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421728</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.2193952065451</v>
+        <v>36.21939520654513</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O30" t="n">
-        <v>35.95062976461617</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P30" t="n">
-        <v>316.5658600362972</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>130.6481883935615</v>
+        <v>36.21939520654513</v>
       </c>
       <c r="M33" t="n">
-        <v>34.3476070497872</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O33" t="n">
-        <v>35.95062976461617</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421728</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M36" t="n">
-        <v>34.3476070497872</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N36" t="n">
-        <v>101.1667618534948</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458871</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856355</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978724</v>
       </c>
       <c r="N39" t="n">
-        <v>527.818684434518</v>
+        <v>29.36224035654935</v>
       </c>
       <c r="O39" t="n">
-        <v>35.95062976461614</v>
+        <v>35.95062976461621</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861586</v>
+        <v>358.0781769018926</v>
       </c>
       <c r="R39" t="n">
-        <v>53.31116889588057</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,16 +11141,16 @@
         <v>42.71231595856355</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>41.02972279421726</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>316.0227237482535</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978717</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3209419703937</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>35.95062976461614</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.0765928158877</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M45" t="n">
         <v>34.34760704978717</v>
@@ -11390,16 +11390,16 @@
         <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
-        <v>311.9844380174484</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.28731256679784</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>160.3805366650161</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.5096173924505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V14" t="n">
-        <v>37.84312462897429</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>141.609936976766</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23673,7 +23673,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>92.68367129702045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>130.4742591606061</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.28731256679831</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>214.6543374933682</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>17.78846042958776</v>
       </c>
       <c r="X23" t="n">
-        <v>226.700255924823</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>198.0760935364023</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>119.7437437231428</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>226.7002559248239</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>147.8142767156758</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>68.31147408663027</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>119.7437437231428</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.465500644384576</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.4283934324466</v>
@@ -24894,19 +24894,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.6335055546318</v>
+        <v>57.09103560669004</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>17.78846042958872</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>119.7437437231427</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.0760935364022</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>226.7002559248232</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>119.7437437231428</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25320,7 +25320,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25332,7 +25332,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>11.80147593093895</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>17.78846042958833</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>224.5375390422393</v>
+        <v>39.91857595977379</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>226.7002559248239</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.231176501514</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>252.5213997088161</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>226.7002559248238</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>124.1763246273426</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.76836759404748</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682143.2432884582</v>
+        <v>682143.2432884581</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682143.2432884581</v>
+        <v>682143.2432884582</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>682143.2432884581</v>
+        <v>682143.2432884582</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700811.0730124187</v>
+        <v>700811.0730124188</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700811.0730124186</v>
+        <v>700811.0730124187</v>
       </c>
     </row>
     <row r="11">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="C2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="E2" t="n">
-        <v>419990.5679258861</v>
+        <v>419990.5679258856</v>
       </c>
       <c r="F2" t="n">
-        <v>419990.567925886</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="G2" t="n">
+        <v>419990.5679258858</v>
+      </c>
+      <c r="H2" t="n">
         <v>419990.5679258859</v>
       </c>
-      <c r="H2" t="n">
-        <v>419990.5679258857</v>
-      </c>
       <c r="I2" t="n">
-        <v>433884.7810915629</v>
+        <v>433884.7810915628</v>
       </c>
       <c r="J2" t="n">
+        <v>433884.7810915627</v>
+      </c>
+      <c r="K2" t="n">
+        <v>433884.7810915625</v>
+      </c>
+      <c r="L2" t="n">
         <v>433884.7810915628</v>
-      </c>
-      <c r="K2" t="n">
-        <v>433884.7810915626</v>
-      </c>
-      <c r="L2" t="n">
-        <v>433884.7810915626</v>
       </c>
       <c r="M2" t="n">
         <v>433884.7810915627</v>
       </c>
       <c r="N2" t="n">
-        <v>433884.7810915622</v>
+        <v>433884.7810915628</v>
       </c>
       <c r="O2" t="n">
-        <v>433884.7810915626</v>
+        <v>433884.7810915623</v>
       </c>
       <c r="P2" t="n">
         <v>433884.7810915626</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588495</v>
+        <v>45948.62261588483</v>
       </c>
       <c r="J3" t="n">
         <v>136594.8008058949</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210447.6112815515</v>
+        <v>210902.4494235331</v>
       </c>
       <c r="C4" t="n">
-        <v>210447.6112815515</v>
+        <v>210902.4494235331</v>
       </c>
       <c r="D4" t="n">
-        <v>210447.6112815514</v>
+        <v>210902.449423533</v>
       </c>
       <c r="E4" t="n">
-        <v>85118.2584193488</v>
+        <v>85811.9115712987</v>
       </c>
       <c r="F4" t="n">
-        <v>85118.25841934879</v>
+        <v>85811.9115712987</v>
       </c>
       <c r="G4" t="n">
-        <v>85118.2584193488</v>
+        <v>85811.9115712987</v>
       </c>
       <c r="H4" t="n">
-        <v>85118.2584193488</v>
+        <v>85811.9115712987</v>
       </c>
       <c r="I4" t="n">
-        <v>84213.54880632428</v>
+        <v>84899.54261239461</v>
       </c>
       <c r="J4" t="n">
-        <v>84213.5488063243</v>
+        <v>84899.54261239461</v>
       </c>
       <c r="K4" t="n">
-        <v>84213.5488063243</v>
+        <v>84899.54261239461</v>
       </c>
       <c r="L4" t="n">
-        <v>84213.5488063243</v>
+        <v>84899.54261239461</v>
       </c>
       <c r="M4" t="n">
-        <v>84213.5488063243</v>
+        <v>84899.54261239461</v>
       </c>
       <c r="N4" t="n">
-        <v>84213.54880632428</v>
+        <v>84899.54261239461</v>
       </c>
       <c r="O4" t="n">
-        <v>84213.5488063243</v>
+        <v>84899.54261239461</v>
       </c>
       <c r="P4" t="n">
-        <v>84213.54880632428</v>
+        <v>84899.54261239461</v>
       </c>
     </row>
     <row r="5">
@@ -26490,19 +26490,19 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
         <v>74967.83978868564</v>
       </c>
       <c r="L5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="M5" t="n">
         <v>74967.83978868564</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74967.83978868565</v>
       </c>
       <c r="N5" t="n">
         <v>74967.83978868564</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21586.753540962</v>
+        <v>21131.91539898054</v>
       </c>
       <c r="C6" t="n">
-        <v>196542.2634340761</v>
+        <v>196087.4252920946</v>
       </c>
       <c r="D6" t="n">
-        <v>196542.2634340762</v>
+        <v>196087.4252920947</v>
       </c>
       <c r="E6" t="n">
-        <v>71877.33636222083</v>
+        <v>69377.87728377941</v>
       </c>
       <c r="F6" t="n">
-        <v>264007.0992616639</v>
+        <v>261507.6401832229</v>
       </c>
       <c r="G6" t="n">
-        <v>264007.0992616638</v>
+        <v>261507.6401832227</v>
       </c>
       <c r="H6" t="n">
-        <v>264007.0992616636</v>
+        <v>261507.6401832229</v>
       </c>
       <c r="I6" t="n">
-        <v>228754.7698806681</v>
+        <v>226742.0809469232</v>
       </c>
       <c r="J6" t="n">
-        <v>138108.591690658</v>
+        <v>136095.902756913</v>
       </c>
       <c r="K6" t="n">
-        <v>274703.3924965527</v>
+        <v>272690.7035628077</v>
       </c>
       <c r="L6" t="n">
-        <v>274703.3924965527</v>
+        <v>272690.703562808</v>
       </c>
       <c r="M6" t="n">
-        <v>114344.94199587</v>
+        <v>112332.2530621251</v>
       </c>
       <c r="N6" t="n">
-        <v>274703.3924965523</v>
+        <v>272690.703562808</v>
       </c>
       <c r="O6" t="n">
-        <v>274703.3924965527</v>
+        <v>272690.7035628075</v>
       </c>
       <c r="P6" t="n">
-        <v>274703.3924965527</v>
+        <v>272690.7035628078</v>
       </c>
     </row>
   </sheetData>
@@ -26758,22 +26758,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="N3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="O3" t="n">
         <v>42.5994067681289</v>
@@ -26813,13 +26813,13 @@
         <v>1217.749551334547</v>
       </c>
       <c r="J4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="K4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334547</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812877</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.2033302017619</v>
+        <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700252</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627597</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>361.4617073220748</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>62.80718955172526</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27539,16 +27539,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>108.9739681775873</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.00887595973253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>145.4111437922965</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.8782168320128</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>33.61011053025257</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>14.8596696917468</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27833,13 +27833,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27912,13 +27912,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>26.58230776570167</v>
+        <v>125.3338416484799</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>33.30748890250979</v>
       </c>
       <c r="C10" t="n">
-        <v>114.7942312170079</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28073,7 +28073,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J23" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T23" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N25" t="n">
-        <v>11.7553412152117</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J26" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T26" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I27" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N28" t="n">
-        <v>11.7553412152117</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J29" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T29" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N31" t="n">
-        <v>11.7553412152117</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J32" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T32" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U33" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N34" t="n">
-        <v>11.7553412152117</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J35" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T35" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N37" t="n">
-        <v>11.7553412152117</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096879</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947879</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275968</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394517</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064917</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351434</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710215</v>
+        <v>30.55726089710206</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323038</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202162</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.4934942216353</v>
+        <v>18.49349422163524</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753719</v>
+        <v>3.902448167753707</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707885</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.09162891267106944</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284866</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017084</v>
       </c>
       <c r="J39" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436435</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430392</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863018</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720071</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538379</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821501</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524822</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557578</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.00602821793888615</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875679</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513109</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507705</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471105</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388315</v>
+        <v>8.924924893388287</v>
       </c>
       <c r="L40" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O40" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035846</v>
+        <v>9.290860781035818</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987445</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871555</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008247</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.004190105583750376</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P2" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>276.3515302285466</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>203.2507825193993</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O6" t="n">
-        <v>209.2450561298663</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>117.7337452574859</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>70.29230409914815</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35728,16 +35728,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>69.15948384215704</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.64359211279304</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36360,7 +36360,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
         <v>746.8144420202835</v>
@@ -36375,13 +36375,13 @@
         <v>678.9865331623263</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>330.6706974396204</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P24" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
         <v>35.54713057581765</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L25" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M25" t="n">
         <v>304.2275806932258</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
         <v>746.8144420202835</v>
@@ -36612,13 +36612,13 @@
         <v>678.9865331623263</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>732.8686174635599</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P27" t="n">
-        <v>56.56879098659985</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L28" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M28" t="n">
         <v>304.2275806932258</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
         <v>746.8144420202835</v>
@@ -36849,13 +36849,13 @@
         <v>678.9865331623263</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P30" t="n">
-        <v>279.8033285417085</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L31" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M31" t="n">
         <v>304.2275806932258</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
         <v>746.8144420202835</v>
@@ -37086,13 +37086,13 @@
         <v>678.9865331623263</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
         <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>94.42879318701641</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P33" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L34" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M34" t="n">
         <v>304.2275806932258</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
         <v>746.8144420202835</v>
@@ -37323,13 +37323,13 @@
         <v>678.9865331623263</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>71.8045214969455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L37" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M37" t="n">
         <v>304.2275806932258</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
         <v>746.8144420202835</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
         <v>678.9865331623263</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>687.6609588258073</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>498.4564440779687</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>313.0819087232767</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L40" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M40" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O40" t="n">
         <v>273.0403949425647</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682961</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>475.2064198543362</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258073</v>
+        <v>279.8033285417084</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>874.7086773902128</v>
       </c>
       <c r="N42" t="n">
-        <v>897.9587016138445</v>
+        <v>906.3140743620672</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.2879618853395</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
         <v>565.3795935096417</v>
@@ -38040,7 +38040,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>275.2219065228597</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
